--- a/biology/Microbiologie/Maupasellidae/Maupasellidae.xlsx
+++ b/biology/Microbiologie/Maupasellidae/Maupasellidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Maupasellidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l’ordre des Astomatida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Maupasella, dédié au zoologiste français Émile Maupas.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Maupasellidae ont une taille petite à moyenne. Leur forme est cylindrique, arrondie aux deux extrémités. Ils nagent librement dans leur milieu de vue. Leur ciliation somatique est holotriche (c. à d. homogène), non dense. Ils présentent des fibres cytosquelettiques relativement courtes, se terminant par une petite épine d'attache antérieure, qui peut être fixe ou mobile. Leur division se fait de façon isotomique ou anisotomique, parfois avec caténulation (c. à d. en formant de petites chaines). Leur macronoyau est allongé, en forme de ruban, rarement ramifié. Un micronoyau est présent. Les vacuoles contractiles sont disposées sur une ou deux rangées[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Maupasellidae ont une taille petite à moyenne. Leur forme est cylindrique, arrondie aux deux extrémités. Ils nagent librement dans leur milieu de vue. Leur ciliation somatique est holotriche (c. à d. homogène), non dense. Ils présentent des fibres cytosquelettiques relativement courtes, se terminant par une petite épine d'attache antérieure, qui peut être fixe ou mobile. Leur division se fait de façon isotomique ou anisotomique, parfois avec caténulation (c. à d. en formant de petites chaines). Leur macronoyau est allongé, en forme de ruban, rarement ramifié. Un micronoyau est présent. Les vacuoles contractiles sont disposées sur une ou deux rangées.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Maupasellidae vivent dans des habitats d'eau douce et terrestres, en tant qu'endosymbiontes, dans les intestins de vers annélides oligochètes et de sangsues[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Maupasellidae vivent dans des habitats d'eau douce et terrestres, en tant qu'endosymbiontes, dans les intestins de vers annélides oligochètes et de sangsues.
 </t>
         </is>
       </c>
@@ -604,14 +622,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (29 août 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (29 août 2023) :
 Acanthophrya Heidenreich, 1935
 Maupasella Cépède, 1910
 Genre synonyme : Schultzellina Cépède, 1910
 Espèce type : Maupasella nova Cépède, 1910
-Selon Lynn (2010)[1] :
+Selon Lynn (2010) :
 Acanthophrya Heidenreich, 1935
 Buchneriella Heidenreich, 1935
 Georgevitchiella de Puytorac, 1957
@@ -643,9 +663,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Maupasellidae Cépède, 1910[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Maupasellidae Cépède, 1910.
 </t>
         </is>
       </c>
